--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Septiembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Septiembre.xlsx
@@ -201,7 +201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -283,11 +283,11 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C6" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -298,11 +298,11 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Declara Incompetencia Rpa</t>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
         </is>
       </c>
       <c r="C7" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -313,11 +313,11 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Desistimiento Querella.</t>
         </is>
       </c>
       <c r="C8" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -328,11 +328,11 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
         </is>
       </c>
       <c r="C9" s="65">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -343,26 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="inlineStr" r="A11">
-        <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantia De Mejillones</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B11">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C11" s="65">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
